--- a/4-Te-dhenat-per-kataster/regjistri/18-Koordinatat-e-ndërtesës-Dior.xlsx
+++ b/4-Te-dhenat-per-kataster/regjistri/18-Koordinatat-e-ndërtesës-Dior.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\565-6-Shefkia1\4-Te-dhenat-per-kataster\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Sojevë\INXHINIERIKE\Dior\4-Te-dhenat-per-kataster\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Nr</t>
   </si>
@@ -75,10 +75,10 @@
 </t>
   </si>
   <si>
-    <t>Sead Prushi</t>
+    <t>Shtëpi-Ndërtesë</t>
   </si>
   <si>
-    <t>Shtëpi-Ndërtesë</t>
+    <t>Liridon Sejdiu</t>
   </si>
 </sst>
 </file>
@@ -88,20 +88,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -125,6 +118,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -203,36 +217,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -453,62 +437,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -516,85 +464,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -814,7 +759,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Ferizaj</a:t>
+            <a:t>Sojevë</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -900,7 +845,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>00565-6</a:t>
+            <a:t>01997-0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1281,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:I18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,579 +1243,746 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C14" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C15" s="9">
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7517924.0990000004</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4692685.9060000004</v>
+      </c>
+      <c r="F15" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G15" s="4">
+        <v>40</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="E15" s="10">
-        <v>4693754.3136</v>
-      </c>
-      <c r="F15" s="10">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="I15" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>7517928.4419999998</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4692673.07</v>
+      </c>
+      <c r="F16" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G16" s="4">
         <v>40</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5">
+        <v>7517929.8169999998</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4692673.5259999996</v>
+      </c>
+      <c r="F17" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G17" s="4">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C18" s="4">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7517929.96</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4692673.2819999997</v>
+      </c>
+      <c r="F18" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G18" s="4">
+        <v>40</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5">
+        <v>7517930.2989999996</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4692672.9689999996</v>
+      </c>
+      <c r="F19" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G19" s="4">
+        <v>40</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5">
+        <v>7517930.7450000001</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4692672.7690000003</v>
+      </c>
+      <c r="F20" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G20" s="4">
+        <v>40</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="C21" s="4">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7517931.2220000001</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4692672.7319999998</v>
+      </c>
+      <c r="F21" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G21" s="4">
+        <v>40</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="C22" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5">
+        <v>7517931.6050000004</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4692672.7970000003</v>
+      </c>
+      <c r="F22" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G22" s="4">
+        <v>40</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="C23" s="4">
+        <v>34</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7517953.7189999996</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4692687.3470000001</v>
+      </c>
+      <c r="F23" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G23" s="4">
+        <v>40</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="C24" s="4">
+        <v>35</v>
+      </c>
+      <c r="D24" s="5">
+        <v>7517955.8949999996</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4692681.023</v>
+      </c>
+      <c r="F24" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G24" s="4">
+        <v>40</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="C25" s="4">
+        <v>58</v>
+      </c>
+      <c r="D25" s="5">
+        <v>7517951.3300000001</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4692686.5060000001</v>
+      </c>
+      <c r="F25" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G25" s="4">
+        <v>40</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="C26" s="4">
+        <v>59</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7517951.9790000003</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4692687.1399999997</v>
+      </c>
+      <c r="F26" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G26" s="4">
+        <v>40</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="4">
+        <v>60</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7517952.0760000004</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4692688.1239999998</v>
+      </c>
+      <c r="F27" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G27" s="4">
+        <v>40</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4">
+        <v>61</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7517950.1849999996</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4692693.4919999996</v>
+      </c>
+      <c r="F28" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G28" s="4">
+        <v>40</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="4">
+        <v>62</v>
+      </c>
+      <c r="D29" s="5">
+        <v>7517949.5559999999</v>
+      </c>
+      <c r="E29" s="5">
+        <v>4692694.1169999996</v>
+      </c>
+      <c r="F29" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G29" s="4">
+        <v>40</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="4">
+        <v>63</v>
+      </c>
+      <c r="D30" s="5">
+        <v>7517948.5300000003</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4692694.1579999998</v>
+      </c>
+      <c r="F30" s="5">
+        <v>616.38300000000004</v>
+      </c>
+      <c r="G30" s="4">
+        <v>40</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C16" s="9">
-        <v>13</v>
-      </c>
-      <c r="D16" s="10">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="E16" s="10">
-        <v>4693745.7829</v>
-      </c>
-      <c r="F16" s="10">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G16" s="7">
-        <v>40</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C17" s="9">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="E17" s="10">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="F17" s="10">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G17" s="7">
-        <v>40</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="11">
-        <v>56</v>
-      </c>
-      <c r="D18" s="12">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="E18" s="12">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="F18" s="12">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G18" s="13">
-        <v>40</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="43"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="43"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="43"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="43"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="43"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="43"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="43"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="26" t="s">
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="38"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29"/>
     </row>
     <row r="48" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35">
-        <v>152</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="40"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26">
+        <v>140</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="31"/>
     </row>
     <row r="49" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K49" s="4"/>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K50" s="4"/>
+      <c r="K50" s="1"/>
     </row>
     <row r="51" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K51" s="4"/>
+      <c r="K51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
